--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H2">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I2">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J2">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N2">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q2">
-        <v>154.73804949986</v>
+        <v>114.1260002804083</v>
       </c>
       <c r="R2">
-        <v>1392.64244549874</v>
+        <v>1027.134002523675</v>
       </c>
       <c r="S2">
-        <v>0.07141929579980999</v>
+        <v>0.05712017281086793</v>
       </c>
       <c r="T2">
-        <v>0.07141929579981</v>
+        <v>0.05712017281086794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H3">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I3">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J3">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.443887</v>
       </c>
       <c r="O3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q3">
-        <v>31.912707972666</v>
+        <v>28.081781178751</v>
       </c>
       <c r="R3">
-        <v>287.214371753994</v>
+        <v>252.736030608759</v>
       </c>
       <c r="S3">
-        <v>0.01472929985765944</v>
+        <v>0.01405495846543389</v>
       </c>
       <c r="T3">
-        <v>0.01472929985765945</v>
+        <v>0.01405495846543389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.586354</v>
+        <v>15.475219</v>
       </c>
       <c r="H4">
-        <v>52.759062</v>
+        <v>46.425657</v>
       </c>
       <c r="I4">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="J4">
-        <v>0.2178245326054132</v>
+        <v>0.1968226394800303</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>48.66687</v>
       </c>
       <c r="O4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q4">
-        <v>285.29093463066</v>
+        <v>251.04349043151</v>
       </c>
       <c r="R4">
-        <v>2567.61841167594</v>
+        <v>2259.39141388359</v>
       </c>
       <c r="S4">
-        <v>0.1316759369479437</v>
+        <v>0.1256475082037285</v>
       </c>
       <c r="T4">
-        <v>0.1316759369479438</v>
+        <v>0.1256475082037285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>156.811283</v>
       </c>
       <c r="I5">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J5">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N5">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O5">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P5">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q5">
-        <v>459.9147739016011</v>
+        <v>385.4817720216472</v>
       </c>
       <c r="R5">
-        <v>4139.23296511441</v>
+        <v>3469.335948194825</v>
       </c>
       <c r="S5">
-        <v>0.2122735124692838</v>
+        <v>0.1929339973294059</v>
       </c>
       <c r="T5">
-        <v>0.2122735124692838</v>
+        <v>0.192933997329406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>156.811283</v>
       </c>
       <c r="I6">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J6">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.443887</v>
       </c>
       <c r="O6">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P6">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q6">
         <v>94.85143388633567</v>
@@ -818,10 +818,10 @@
         <v>853.6629049770211</v>
       </c>
       <c r="S6">
-        <v>0.04377864808080354</v>
+        <v>0.04747323380854685</v>
       </c>
       <c r="T6">
-        <v>0.04377864808080354</v>
+        <v>0.04747323380854685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>156.811283</v>
       </c>
       <c r="I7">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145543</v>
       </c>
       <c r="J7">
-        <v>0.6474213742983183</v>
+        <v>0.6648050370145544</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>48.66687</v>
       </c>
       <c r="O7">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P7">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q7">
         <v>847.9460360326901</v>
@@ -880,10 +880,10 @@
         <v>7631.51432429421</v>
       </c>
       <c r="S7">
-        <v>0.3913692137482309</v>
+        <v>0.4243978058766015</v>
       </c>
       <c r="T7">
-        <v>0.3913692137482309</v>
+        <v>0.4243978058766015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>32.638654</v>
       </c>
       <c r="I8">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J8">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N8">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O8">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P8">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q8">
-        <v>95.72652482450889</v>
+        <v>80.23406185842776</v>
       </c>
       <c r="R8">
-        <v>861.53872342058</v>
+        <v>722.1065567258499</v>
       </c>
       <c r="S8">
-        <v>0.04418254601519738</v>
+        <v>0.04015722506186883</v>
       </c>
       <c r="T8">
-        <v>0.04418254601519739</v>
+        <v>0.04015722506186883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>32.638654</v>
       </c>
       <c r="I9">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J9">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>5.443887</v>
       </c>
       <c r="O9">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P9">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q9">
         <v>19.74234935645534</v>
@@ -1004,10 +1004,10 @@
         <v>177.681144208098</v>
       </c>
       <c r="S9">
-        <v>0.009112074845386672</v>
+        <v>0.009881064824514337</v>
       </c>
       <c r="T9">
-        <v>0.009112074845386673</v>
+        <v>0.009881064824514335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>32.638654</v>
       </c>
       <c r="I10">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="J10">
-        <v>0.1347540930962685</v>
+        <v>0.1383723235054153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>48.66687</v>
       </c>
       <c r="O10">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P10">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q10">
         <v>176.49123679922</v>
@@ -1066,10 +1066,10 @@
         <v>1588.42113119298</v>
       </c>
       <c r="S10">
-        <v>0.08145947223568441</v>
+        <v>0.08833403361903215</v>
       </c>
       <c r="T10">
-        <v>0.08145947223568442</v>
+        <v>0.08833403361903214</v>
       </c>
     </row>
   </sheetData>
